--- a/Doc/广汽菲克区域巡检工具平台修改内容-20180126.xlsx
+++ b/Doc/广汽菲克区域巡检工具平台修改内容-20180126.xlsx
@@ -231,7 +231,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +250,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -479,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,9 +516,6 @@
     <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -530,6 +533,30 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="8" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -857,7 +884,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -869,13 +896,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -891,24 +918,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="33">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -930,7 +957,7 @@
       <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -946,31 +973,31 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Doc/广汽菲克区域巡检工具平台修改内容-20180126.xlsx
+++ b/Doc/广汽菲克区域巡检工具平台修改内容-20180126.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="615" windowWidth="14940" windowHeight="7725" tabRatio="628"/>
+    <workbookView xWindow="6735" yWindow="615" windowWidth="14940" windowHeight="7725" tabRatio="639"/>
   </bookViews>
   <sheets>
     <sheet name="项目构建详细" sheetId="25" r:id="rId1"/>
@@ -485,18 +485,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -504,17 +498,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -531,9 +516,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -557,6 +539,12 @@
     </xf>
     <xf numFmtId="3" fontId="10" fillId="4" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="4" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -884,7 +872,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -896,108 +884,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="33">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
